--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value67.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value67.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8829959008673665</v>
+        <v>1.365400195121765</v>
       </c>
       <c r="B1">
-        <v>1.781600389963721</v>
+        <v>1.768108248710632</v>
       </c>
       <c r="C1">
-        <v>2.106687265264125</v>
+        <v>1.531245470046997</v>
       </c>
       <c r="D1">
-        <v>2.438014718171328</v>
+        <v>2.262045621871948</v>
       </c>
       <c r="E1">
-        <v>2.105443145038838</v>
+        <v>3.58557915687561</v>
       </c>
     </row>
   </sheetData>
